--- a/biology/Botanique/Bambusa/Bambusa.xlsx
+++ b/biology/Botanique/Bambusa/Bambusa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bambusa est un genre de plantes monocotylédones de la famille des Poaceae et de la sous-famille des Bambusoideae  (connue sous le nom vulgaire de « bambous »). Les espèces du genre Bambusa sont des bambous originaires d'Asie tropicale.
-Ce genre comprend plus de 100 espèces, réparties à l’origine en Asie tropicale et subtropicale mais distribuée partout dans le monde tropical en culture. La Chine possède 80 espèces de Bambusa dont 67 endémiques, principalement dans le Sud et le Sud-Est[1].
+Ce genre comprend plus de 100 espèces, réparties à l’origine en Asie tropicale et subtropicale mais distribuée partout dans le monde tropical en culture. La Chine possède 80 espèces de Bambusa dont 67 endémiques, principalement dans le Sud et le Sud-Est.
 L'espèce-type est Bambusa bambos (L.) Voss, le bambou géant épineux (syn.= Bambusa arundinacea Retz).
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Bambusa est un mot de latin scientifique obtenu par dérivation à partir de l’étymon de base Bambu, emprunté au portugais bambu, mambu (XVIe), lequel est emprunté au marathe et au guzrati, langues dravidiennes de la côte ouest de l’Inde[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Bambusa est un mot de latin scientifique obtenu par dérivation à partir de l’étymon de base Bambu, emprunté au portugais bambu, mambu (XVIe), lequel est emprunté au marathe et au guzrati, langues dravidiennes de la côte ouest de l’Inde.
 </t>
         </is>
       </c>
@@ -544,13 +558,15 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La plupart des espèces de Bambusa sont des bambous arborescents de taille plutôt grande, avec de nombreuses ramifications prenant naissance au niveau des nœuds, une ou deux étant beaucoup plus grandes que les autres. Les chaumes (tiges) font de 1 à 20 m de haut.
-Ils possèdent des rhizomes pachymorphes à cols courts. Ce sont des bambous unicespiteux, formant une seule touffe dense partageant le même réseau de racines[1]. 
+Ils possèdent des rhizomes pachymorphes à cols courts. Ce sont des bambous unicespiteux, formant une seule touffe dense partageant le même réseau de racines. 
 Leurs rhizomes non-traçants sont caractérisés par
 des entrenœuds courts, épais (dits pachymorphes) et disposés en une forme globale incurvée remontante lors de la croissance
-des bourgeons latéraux ne produisant que de nouveaux rhizomes. Seul le bourgeon terminal du rhizome produit un nouveau chaume émergeant du sol[3].
+des bourgeons latéraux ne produisant que de nouveaux rhizomes. Seul le bourgeon terminal du rhizome produit un nouveau chaume émergeant du sol.
 Les rhizome pachymorphe à cols courts sont des rhizomes non-traçants formant une seule touffe de chaumes.
 </t>
         </is>
@@ -580,9 +596,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (9 juillet 2016)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (9 juillet 2016) :
 Bambusa affinis Munro (1868)
 Bambusa albolineata L.C.Chia (1988)
 Bambusa alemtemshii H.B.Naithani (2007)
